--- a/CumulativeTestsByTypeByCounty/2021-02-09.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-02-09.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>45929</v>
+        <v>45959</v>
       </c>
       <c r="C2" s="4">
         <v>1392</v>
       </c>
       <c r="D2" s="4">
-        <v>4797</v>
+        <v>4850</v>
       </c>
       <c r="E2" s="4">
-        <v>52118</v>
+        <v>52201</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3812</v>
+        <v>3815</v>
       </c>
       <c r="C3" s="4">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D3" s="4">
-        <v>1740</v>
+        <v>1747</v>
       </c>
       <c r="E3" s="4">
-        <v>5729</v>
+        <v>5741</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>47939</v>
+        <v>47976</v>
       </c>
       <c r="C4" s="4">
         <v>1408</v>
       </c>
       <c r="D4" s="4">
-        <v>13400</v>
+        <v>13645</v>
       </c>
       <c r="E4" s="4">
-        <v>62747</v>
+        <v>63029</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>6143</v>
+        <v>6171</v>
       </c>
       <c r="C5" s="4">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="D5" s="4">
-        <v>3820</v>
+        <v>3835</v>
       </c>
       <c r="E5" s="4">
-        <v>11894</v>
+        <v>11938</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2640</v>
+        <v>2644</v>
       </c>
       <c r="C6" s="4">
         <v>401</v>
       </c>
       <c r="D6" s="4">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E6" s="4">
-        <v>3402</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>38155</v>
+        <v>38379</v>
       </c>
       <c r="C8" s="4">
         <v>938</v>
       </c>
       <c r="D8" s="4">
-        <v>3154</v>
+        <v>3201</v>
       </c>
       <c r="E8" s="4">
-        <v>42247</v>
+        <v>42518</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>14878</v>
+        <v>14934</v>
       </c>
       <c r="C9" s="4">
         <v>386</v>
       </c>
       <c r="D9" s="4">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="E9" s="4">
-        <v>15806</v>
+        <v>15871</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1213,10 +1213,10 @@
         <v>39</v>
       </c>
       <c r="D10" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E10" s="4">
-        <v>2067</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>6473</v>
+        <v>6518</v>
       </c>
       <c r="C11" s="4">
         <v>385</v>
       </c>
       <c r="D11" s="4">
-        <v>2288</v>
+        <v>2319</v>
       </c>
       <c r="E11" s="4">
-        <v>9146</v>
+        <v>9222</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>42188</v>
+        <v>42403</v>
       </c>
       <c r="C12" s="4">
         <v>1002</v>
       </c>
       <c r="D12" s="4">
-        <v>11641</v>
+        <v>11723</v>
       </c>
       <c r="E12" s="4">
-        <v>54831</v>
+        <v>55128</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>27284</v>
+        <v>27302</v>
       </c>
       <c r="C14" s="4">
-        <v>4721</v>
+        <v>4728</v>
       </c>
       <c r="D14" s="4">
-        <v>4904</v>
+        <v>5004</v>
       </c>
       <c r="E14" s="4">
-        <v>36909</v>
+        <v>37034</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>204939</v>
+        <v>205549</v>
       </c>
       <c r="C15" s="4">
-        <v>12542</v>
+        <v>12544</v>
       </c>
       <c r="D15" s="4">
-        <v>7878</v>
+        <v>8008</v>
       </c>
       <c r="E15" s="4">
-        <v>225359</v>
+        <v>226101</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1430905</v>
+        <v>1436139</v>
       </c>
       <c r="C16" s="4">
-        <v>40088</v>
+        <v>40092</v>
       </c>
       <c r="D16" s="4">
-        <v>128958</v>
+        <v>131603</v>
       </c>
       <c r="E16" s="4">
-        <v>1599951</v>
+        <v>1607834</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4856</v>
+        <v>4869</v>
       </c>
       <c r="C17" s="4">
         <v>207</v>
       </c>
       <c r="D17" s="4">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="E17" s="4">
-        <v>5500</v>
+        <v>5529</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7804</v>
+        <v>7835</v>
       </c>
       <c r="C19" s="4">
         <v>454</v>
       </c>
       <c r="D19" s="4">
-        <v>3651</v>
+        <v>3666</v>
       </c>
       <c r="E19" s="4">
-        <v>11909</v>
+        <v>11955</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>52316</v>
+        <v>52440</v>
       </c>
       <c r="C20" s="4">
-        <v>9608</v>
+        <v>9622</v>
       </c>
       <c r="D20" s="4">
-        <v>6102</v>
+        <v>6139</v>
       </c>
       <c r="E20" s="4">
-        <v>68026</v>
+        <v>68201</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>256685</v>
+        <v>258010</v>
       </c>
       <c r="C21" s="4">
-        <v>8118</v>
+        <v>8129</v>
       </c>
       <c r="D21" s="4">
-        <v>19362</v>
+        <v>19723</v>
       </c>
       <c r="E21" s="4">
-        <v>284165</v>
+        <v>285862</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>199528</v>
+        <v>200115</v>
       </c>
       <c r="C22" s="4">
         <v>5175</v>
       </c>
       <c r="D22" s="4">
-        <v>10270</v>
+        <v>10521</v>
       </c>
       <c r="E22" s="4">
-        <v>214973</v>
+        <v>215811</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8108</v>
+        <v>8188</v>
       </c>
       <c r="C23" s="4">
         <v>105</v>
       </c>
       <c r="D23" s="4">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E23" s="4">
-        <v>8593</v>
+        <v>8686</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C24" s="4">
         <v>108</v>
@@ -1454,7 +1454,7 @@
         <v>48</v>
       </c>
       <c r="E24" s="4">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>11842</v>
+        <v>11846</v>
       </c>
       <c r="C25" s="4">
-        <v>1192</v>
+        <v>1196</v>
       </c>
       <c r="D25" s="4">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="E25" s="4">
-        <v>14302</v>
+        <v>14330</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>14904</v>
+        <v>14913</v>
       </c>
       <c r="C26" s="4">
         <v>692</v>
       </c>
       <c r="D26" s="4">
-        <v>13980</v>
+        <v>14107</v>
       </c>
       <c r="E26" s="4">
-        <v>29576</v>
+        <v>29712</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>11742</v>
+        <v>11769</v>
       </c>
       <c r="C27" s="4">
         <v>220</v>
       </c>
       <c r="D27" s="4">
-        <v>1458</v>
+        <v>1493</v>
       </c>
       <c r="E27" s="4">
-        <v>13420</v>
+        <v>13482</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>27550</v>
+        <v>27613</v>
       </c>
       <c r="C28" s="4">
         <v>998</v>
       </c>
       <c r="D28" s="4">
-        <v>2112</v>
+        <v>2145</v>
       </c>
       <c r="E28" s="4">
-        <v>30660</v>
+        <v>30756</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>27257</v>
+        <v>27332</v>
       </c>
       <c r="C29" s="4">
         <v>1466</v>
       </c>
       <c r="D29" s="4">
-        <v>3870</v>
+        <v>3894</v>
       </c>
       <c r="E29" s="4">
-        <v>32593</v>
+        <v>32692</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>11724</v>
+        <v>11793</v>
       </c>
       <c r="C30" s="4">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D30" s="4">
-        <v>3440</v>
+        <v>3485</v>
       </c>
       <c r="E30" s="4">
-        <v>15417</v>
+        <v>15533</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4638</v>
+        <v>4641</v>
       </c>
       <c r="C31" s="4">
         <v>211</v>
       </c>
       <c r="D31" s="4">
-        <v>3516</v>
+        <v>3529</v>
       </c>
       <c r="E31" s="4">
-        <v>8365</v>
+        <v>8381</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>208775</v>
+        <v>209482</v>
       </c>
       <c r="C32" s="4">
-        <v>7021</v>
+        <v>7029</v>
       </c>
       <c r="D32" s="4">
-        <v>27812</v>
+        <v>28456</v>
       </c>
       <c r="E32" s="4">
-        <v>243608</v>
+        <v>244967</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>5027</v>
+        <v>5030</v>
       </c>
       <c r="C33" s="4">
         <v>326</v>
       </c>
       <c r="D33" s="4">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="E33" s="4">
-        <v>6453</v>
+        <v>6459</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1621,10 +1621,10 @@
         <v>741</v>
       </c>
       <c r="D34" s="4">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E34" s="4">
-        <v>2352</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10643</v>
+        <v>10652</v>
       </c>
       <c r="C35" s="4">
-        <v>3046</v>
+        <v>3048</v>
       </c>
       <c r="D35" s="4">
-        <v>2312</v>
+        <v>2322</v>
       </c>
       <c r="E35" s="4">
-        <v>16001</v>
+        <v>16022</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6797</v>
+        <v>6809</v>
       </c>
       <c r="C37" s="4">
         <v>523</v>
       </c>
       <c r="D37" s="4">
-        <v>834</v>
+        <v>858</v>
       </c>
       <c r="E37" s="4">
-        <v>8154</v>
+        <v>8190</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>19743</v>
+        <v>19830</v>
       </c>
       <c r="C38" s="4">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D38" s="4">
-        <v>5367</v>
+        <v>5499</v>
       </c>
       <c r="E38" s="4">
-        <v>25818</v>
+        <v>26039</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="C39" s="4">
         <v>295</v>
       </c>
       <c r="D39" s="4">
-        <v>3575</v>
+        <v>3613</v>
       </c>
       <c r="E39" s="4">
-        <v>6450</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3648</v>
+        <v>3653</v>
       </c>
       <c r="C40" s="4">
         <v>358</v>
       </c>
       <c r="D40" s="4">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E40" s="4">
-        <v>4879</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="C42" s="4">
         <v>21</v>
       </c>
       <c r="D42" s="4">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="E42" s="4">
-        <v>3294</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="C43" s="4">
         <v>75</v>
       </c>
       <c r="D43" s="4">
-        <v>2135</v>
+        <v>2146</v>
       </c>
       <c r="E43" s="4">
-        <v>4993</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>743097</v>
+        <v>746811</v>
       </c>
       <c r="C44" s="4">
-        <v>73317</v>
+        <v>73408</v>
       </c>
       <c r="D44" s="4">
-        <v>60715</v>
+        <v>62029</v>
       </c>
       <c r="E44" s="4">
-        <v>877129</v>
+        <v>882248</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C45" s="4">
         <v>85</v>
       </c>
       <c r="D45" s="4">
-        <v>981</v>
+        <v>1027</v>
       </c>
       <c r="E45" s="4">
-        <v>2007</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>10253</v>
+        <v>10283</v>
       </c>
       <c r="C46" s="4">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D46" s="4">
-        <v>2632</v>
+        <v>2637</v>
       </c>
       <c r="E46" s="4">
-        <v>13136</v>
+        <v>13172</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>79252</v>
+        <v>79503</v>
       </c>
       <c r="C47" s="4">
-        <v>6177</v>
+        <v>6179</v>
       </c>
       <c r="D47" s="4">
-        <v>12716</v>
+        <v>12889</v>
       </c>
       <c r="E47" s="4">
-        <v>98145</v>
+        <v>98571</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5932</v>
+        <v>5940</v>
       </c>
       <c r="C48" s="4">
         <v>287</v>
       </c>
       <c r="D48" s="4">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="E48" s="4">
-        <v>8062</v>
+        <v>8073</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1300</v>
+        <v>1305</v>
       </c>
       <c r="C49" s="4">
         <v>14</v>
       </c>
       <c r="D49" s="4">
-        <v>1075</v>
+        <v>1100</v>
       </c>
       <c r="E49" s="4">
-        <v>2389</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>20675</v>
+        <v>20715</v>
       </c>
       <c r="C50" s="4">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="D50" s="4">
-        <v>3611</v>
+        <v>3732</v>
       </c>
       <c r="E50" s="4">
-        <v>25479</v>
+        <v>25643</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>72682</v>
+        <v>73076</v>
       </c>
       <c r="C51" s="4">
-        <v>2045</v>
+        <v>2049</v>
       </c>
       <c r="D51" s="4">
-        <v>2130</v>
+        <v>2157</v>
       </c>
       <c r="E51" s="4">
-        <v>76857</v>
+        <v>77282</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1927,10 +1927,10 @@
         <v>20</v>
       </c>
       <c r="D52" s="4">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="E52" s="4">
-        <v>1219</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="C53" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="4">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E53" s="4">
-        <v>4696</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C54" s="4">
         <v>11</v>
       </c>
       <c r="D54" s="4">
-        <v>1645</v>
+        <v>1656</v>
       </c>
       <c r="E54" s="4">
-        <v>2570</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="C55" s="4">
         <v>18</v>
       </c>
       <c r="D55" s="4">
-        <v>1308</v>
+        <v>1317</v>
       </c>
       <c r="E55" s="4">
-        <v>3543</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="C56" s="4">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>99</v>
       </c>
       <c r="E56" s="4">
-        <v>2052</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C57" s="4">
         <v>251</v>
       </c>
       <c r="D57" s="4">
-        <v>1149</v>
+        <v>1320</v>
       </c>
       <c r="E57" s="4">
-        <v>2298</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1905972</v>
+        <v>1915063</v>
       </c>
       <c r="C58" s="4">
-        <v>120447</v>
+        <v>120735</v>
       </c>
       <c r="D58" s="4">
-        <v>129556</v>
+        <v>132381</v>
       </c>
       <c r="E58" s="4">
-        <v>2155975</v>
+        <v>2168179</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6950</v>
+        <v>6951</v>
       </c>
       <c r="C59" s="4">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D59" s="4">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="E59" s="4">
-        <v>9076</v>
+        <v>9086</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>7678</v>
+        <v>7693</v>
       </c>
       <c r="C60" s="4">
         <v>170</v>
       </c>
       <c r="D60" s="4">
-        <v>1881</v>
+        <v>1889</v>
       </c>
       <c r="E60" s="4">
-        <v>9729</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2077,13 +2077,13 @@
         <v>4149</v>
       </c>
       <c r="C61" s="4">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D61" s="4">
-        <v>1681</v>
+        <v>1685</v>
       </c>
       <c r="E61" s="4">
-        <v>6522</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="C62" s="4">
         <v>206</v>
       </c>
       <c r="D62" s="4">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="E62" s="4">
-        <v>2566</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>463117</v>
+        <v>465303</v>
       </c>
       <c r="C63" s="4">
-        <v>53848</v>
+        <v>53961</v>
       </c>
       <c r="D63" s="4">
-        <v>52665</v>
+        <v>53812</v>
       </c>
       <c r="E63" s="4">
-        <v>569630</v>
+        <v>573076</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2131,10 +2131,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="4">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E64" s="4">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>8407</v>
+        <v>8420</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E65" s="4">
-        <v>8956</v>
+        <v>8975</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2165,10 +2165,10 @@
         <v>308</v>
       </c>
       <c r="D66" s="4">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E66" s="4">
-        <v>1903</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>15020</v>
+        <v>15075</v>
       </c>
       <c r="C67" s="4">
-        <v>2050</v>
+        <v>2067</v>
       </c>
       <c r="D67" s="4">
-        <v>1018</v>
+        <v>1031</v>
       </c>
       <c r="E67" s="4">
-        <v>18088</v>
+        <v>18173</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4081</v>
+        <v>4109</v>
       </c>
       <c r="C68" s="4">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D68" s="4">
-        <v>2672</v>
+        <v>2691</v>
       </c>
       <c r="E68" s="4">
-        <v>7064</v>
+        <v>7113</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>52073</v>
+        <v>52235</v>
       </c>
       <c r="C69" s="4">
-        <v>4083</v>
+        <v>4109</v>
       </c>
       <c r="D69" s="4">
-        <v>11847</v>
+        <v>11926</v>
       </c>
       <c r="E69" s="4">
-        <v>68003</v>
+        <v>68270</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E70" s="4">
-        <v>1391</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>716484</v>
+        <v>720223</v>
       </c>
       <c r="C71" s="4">
-        <v>15356</v>
+        <v>15364</v>
       </c>
       <c r="D71" s="4">
-        <v>107101</v>
+        <v>109110</v>
       </c>
       <c r="E71" s="4">
-        <v>838941</v>
+        <v>844697</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>136129</v>
+        <v>136583</v>
       </c>
       <c r="C72" s="4">
-        <v>6526</v>
+        <v>6541</v>
       </c>
       <c r="D72" s="4">
-        <v>6555</v>
+        <v>6724</v>
       </c>
       <c r="E72" s="4">
-        <v>149210</v>
+        <v>149848</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>15108</v>
+        <v>15158</v>
       </c>
       <c r="C73" s="4">
         <v>1032</v>
       </c>
       <c r="D73" s="4">
-        <v>4261</v>
+        <v>4306</v>
       </c>
       <c r="E73" s="4">
-        <v>20401</v>
+        <v>20496</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>11133</v>
+        <v>11140</v>
       </c>
       <c r="C74" s="4">
         <v>379</v>
       </c>
       <c r="D74" s="4">
-        <v>1294</v>
+        <v>1321</v>
       </c>
       <c r="E74" s="4">
-        <v>12806</v>
+        <v>12840</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>21326</v>
+        <v>21413</v>
       </c>
       <c r="C75" s="4">
         <v>716</v>
       </c>
       <c r="D75" s="4">
-        <v>3159</v>
+        <v>3205</v>
       </c>
       <c r="E75" s="4">
-        <v>25201</v>
+        <v>25334</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>12001</v>
+        <v>12035</v>
       </c>
       <c r="C76" s="4">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D76" s="4">
-        <v>1361</v>
+        <v>1391</v>
       </c>
       <c r="E76" s="4">
-        <v>13703</v>
+        <v>13768</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C77" s="4">
         <v>28</v>
       </c>
       <c r="D77" s="4">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E77" s="4">
-        <v>1491</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="C78" s="4">
         <v>107</v>
       </c>
       <c r="D78" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E78" s="4">
-        <v>2377</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,7 +2380,7 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C79" s="4">
         <v>77</v>
@@ -2389,7 +2389,7 @@
         <v>590</v>
       </c>
       <c r="E79" s="4">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>522663</v>
+        <v>525518</v>
       </c>
       <c r="C80" s="4">
-        <v>19686</v>
+        <v>19723</v>
       </c>
       <c r="D80" s="4">
-        <v>20230</v>
+        <v>20714</v>
       </c>
       <c r="E80" s="4">
-        <v>562579</v>
+        <v>565955</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3753</v>
+        <v>3755</v>
       </c>
       <c r="C81" s="4">
         <v>430</v>
       </c>
       <c r="D81" s="4">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E81" s="4">
-        <v>4714</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>12320</v>
+        <v>12349</v>
       </c>
       <c r="C82" s="4">
         <v>627</v>
       </c>
       <c r="D82" s="4">
-        <v>2874</v>
+        <v>2904</v>
       </c>
       <c r="E82" s="4">
-        <v>15821</v>
+        <v>15880</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>13861</v>
+        <v>13907</v>
       </c>
       <c r="C83" s="4">
         <v>389</v>
       </c>
       <c r="D83" s="4">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="E83" s="4">
-        <v>14686</v>
+        <v>14753</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2969</v>
+        <v>2971</v>
       </c>
       <c r="C84" s="4">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D84" s="4">
         <v>649</v>
       </c>
       <c r="E84" s="4">
-        <v>3809</v>
+        <v>3815</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>270358</v>
+        <v>271046</v>
       </c>
       <c r="C85" s="4">
-        <v>8367</v>
+        <v>8386</v>
       </c>
       <c r="D85" s="4">
-        <v>15355</v>
+        <v>15581</v>
       </c>
       <c r="E85" s="4">
-        <v>294080</v>
+        <v>295013</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,7 +2499,7 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="C86" s="4">
         <v>45</v>
@@ -2508,7 +2508,7 @@
         <v>1216</v>
       </c>
       <c r="E86" s="4">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>14173</v>
+        <v>14259</v>
       </c>
       <c r="C87" s="4">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D87" s="4">
-        <v>2464</v>
+        <v>2499</v>
       </c>
       <c r="E87" s="4">
-        <v>16953</v>
+        <v>17075</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88" s="4">
         <v>25</v>
@@ -2542,7 +2542,7 @@
         <v>59</v>
       </c>
       <c r="E88" s="4">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2242</v>
+        <v>2253</v>
       </c>
       <c r="C89" s="4">
         <v>143</v>
       </c>
       <c r="D89" s="4">
-        <v>1221</v>
+        <v>1234</v>
       </c>
       <c r="E89" s="4">
-        <v>3606</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>11273</v>
+        <v>11282</v>
       </c>
       <c r="C90" s="4">
         <v>276</v>
       </c>
       <c r="D90" s="4">
-        <v>2421</v>
+        <v>2463</v>
       </c>
       <c r="E90" s="4">
-        <v>13970</v>
+        <v>14021</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6762</v>
+        <v>6765</v>
       </c>
       <c r="C91" s="4">
         <v>791</v>
       </c>
       <c r="D91" s="4">
-        <v>1372</v>
+        <v>1390</v>
       </c>
       <c r="E91" s="4">
-        <v>8925</v>
+        <v>8946</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>84921</v>
+        <v>85114</v>
       </c>
       <c r="C92" s="4">
-        <v>3418</v>
+        <v>3420</v>
       </c>
       <c r="D92" s="4">
-        <v>9152</v>
+        <v>9290</v>
       </c>
       <c r="E92" s="4">
-        <v>97491</v>
+        <v>97824</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>41335</v>
+        <v>41398</v>
       </c>
       <c r="C93" s="4">
-        <v>8921</v>
+        <v>8922</v>
       </c>
       <c r="D93" s="4">
-        <v>10761</v>
+        <v>11021</v>
       </c>
       <c r="E93" s="4">
-        <v>61017</v>
+        <v>61341</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>22512</v>
+        <v>22550</v>
       </c>
       <c r="C94" s="4">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D94" s="4">
-        <v>1163</v>
+        <v>1187</v>
       </c>
       <c r="E94" s="4">
-        <v>24110</v>
+        <v>24174</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>62264</v>
+        <v>62487</v>
       </c>
       <c r="C95" s="4">
-        <v>2837</v>
+        <v>2844</v>
       </c>
       <c r="D95" s="4">
-        <v>10574</v>
+        <v>10776</v>
       </c>
       <c r="E95" s="4">
-        <v>75675</v>
+        <v>76107</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>11364</v>
+        <v>11367</v>
       </c>
       <c r="C96" s="4">
         <v>254</v>
       </c>
       <c r="D96" s="4">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="E96" s="4">
-        <v>13265</v>
+        <v>13272</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2692,10 +2692,10 @@
         <v>37</v>
       </c>
       <c r="D97" s="4">
-        <v>1738</v>
+        <v>1754</v>
       </c>
       <c r="E97" s="4">
-        <v>2852</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>4305</v>
+        <v>4322</v>
       </c>
       <c r="C98" s="4">
         <v>284</v>
       </c>
       <c r="D98" s="4">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="E98" s="4">
-        <v>5426</v>
+        <v>5448</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="C99" s="4">
         <v>491</v>
       </c>
       <c r="D99" s="4">
-        <v>1497</v>
+        <v>1518</v>
       </c>
       <c r="E99" s="4">
-        <v>3111</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C100" s="4">
         <v>174</v>
       </c>
       <c r="D100" s="4">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="E100" s="4">
-        <v>2266</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>16743</v>
+        <v>16817</v>
       </c>
       <c r="C101" s="4">
         <v>3049</v>
       </c>
       <c r="D101" s="4">
-        <v>4239</v>
+        <v>4333</v>
       </c>
       <c r="E101" s="4">
-        <v>24031</v>
+        <v>24199</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>3198379</v>
+        <v>3221162</v>
       </c>
       <c r="C102" s="4">
-        <v>119539</v>
+        <v>119696</v>
       </c>
       <c r="D102" s="4">
-        <v>184339</v>
+        <v>188769</v>
       </c>
       <c r="E102" s="4">
-        <v>3502257</v>
+        <v>3529627</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>51174</v>
+        <v>51261</v>
       </c>
       <c r="C103" s="4">
-        <v>6548</v>
+        <v>6549</v>
       </c>
       <c r="D103" s="4">
-        <v>6103</v>
+        <v>6183</v>
       </c>
       <c r="E103" s="4">
-        <v>63825</v>
+        <v>63993</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C104" s="4">
         <v>42</v>
       </c>
       <c r="D104" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E104" s="4">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C105" s="4">
         <v>34</v>
       </c>
       <c r="D105" s="4">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="E105" s="4">
-        <v>2311</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>189085</v>
+        <v>189698</v>
       </c>
       <c r="C106" s="4">
-        <v>9751</v>
+        <v>9757</v>
       </c>
       <c r="D106" s="4">
-        <v>8956</v>
+        <v>9128</v>
       </c>
       <c r="E106" s="4">
-        <v>207792</v>
+        <v>208583</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>22976</v>
+        <v>23016</v>
       </c>
       <c r="C108" s="4">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="D108" s="4">
-        <v>5170</v>
+        <v>5264</v>
       </c>
       <c r="E108" s="4">
-        <v>30149</v>
+        <v>30284</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>372310</v>
+        <v>373517</v>
       </c>
       <c r="C109" s="4">
-        <v>13556</v>
+        <v>13575</v>
       </c>
       <c r="D109" s="4">
-        <v>67766</v>
+        <v>70094</v>
       </c>
       <c r="E109" s="4">
-        <v>453632</v>
+        <v>457186</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>28935</v>
+        <v>29089</v>
       </c>
       <c r="C110" s="4">
         <v>941</v>
       </c>
       <c r="D110" s="4">
-        <v>4230</v>
+        <v>4282</v>
       </c>
       <c r="E110" s="4">
-        <v>34106</v>
+        <v>34312</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6777</v>
+        <v>6780</v>
       </c>
       <c r="C111" s="4">
         <v>76</v>
       </c>
       <c r="D111" s="4">
-        <v>2529</v>
+        <v>2531</v>
       </c>
       <c r="E111" s="4">
-        <v>9382</v>
+        <v>9387</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>30001</v>
+        <v>30181</v>
       </c>
       <c r="C112" s="4">
         <v>2210</v>
       </c>
       <c r="D112" s="4">
-        <v>14122</v>
+        <v>14477</v>
       </c>
       <c r="E112" s="4">
-        <v>46333</v>
+        <v>46868</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>14734</v>
+        <v>14744</v>
       </c>
       <c r="C113" s="4">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="D113" s="4">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="E113" s="4">
-        <v>18529</v>
+        <v>18549</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>13413</v>
+        <v>13425</v>
       </c>
       <c r="C114" s="4">
         <v>318</v>
       </c>
       <c r="D114" s="4">
-        <v>1790</v>
+        <v>1808</v>
       </c>
       <c r="E114" s="4">
-        <v>15521</v>
+        <v>15551</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>13758</v>
+        <v>13770</v>
       </c>
       <c r="C115" s="4">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D115" s="4">
-        <v>3034</v>
+        <v>3109</v>
       </c>
       <c r="E115" s="4">
-        <v>17198</v>
+        <v>17289</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2108</v>
+        <v>2118</v>
       </c>
       <c r="C116" s="4">
         <v>29</v>
       </c>
       <c r="D116" s="4">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="E116" s="4">
-        <v>2850</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>64026</v>
+        <v>64236</v>
       </c>
       <c r="C117" s="4">
-        <v>3319</v>
+        <v>3323</v>
       </c>
       <c r="D117" s="4">
-        <v>6812</v>
+        <v>6926</v>
       </c>
       <c r="E117" s="4">
-        <v>74157</v>
+        <v>74485</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7734</v>
+        <v>7742</v>
       </c>
       <c r="C118" s="4">
         <v>1068</v>
       </c>
       <c r="D118" s="4">
-        <v>2454</v>
+        <v>2500</v>
       </c>
       <c r="E118" s="4">
-        <v>11256</v>
+        <v>11310</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,7 +3060,7 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C119" s="4">
         <v>8</v>
@@ -3069,7 +3069,7 @@
         <v>223</v>
       </c>
       <c r="E119" s="4">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,7 +3077,7 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="C120" s="4">
         <v>167</v>
@@ -3086,7 +3086,7 @@
         <v>218</v>
       </c>
       <c r="E120" s="4">
-        <v>1849</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>6196</v>
+        <v>6209</v>
       </c>
       <c r="C121" s="4">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D121" s="4">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="E121" s="4">
-        <v>7190</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>11339</v>
+        <v>11358</v>
       </c>
       <c r="C122" s="4">
         <v>2472</v>
       </c>
       <c r="D122" s="4">
-        <v>2316</v>
+        <v>2356</v>
       </c>
       <c r="E122" s="4">
-        <v>16127</v>
+        <v>16186</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1535</v>
+        <v>1553</v>
       </c>
       <c r="C123" s="4">
         <v>25</v>
       </c>
       <c r="D123" s="4">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E123" s="4">
-        <v>1772</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>138531</v>
+        <v>138736</v>
       </c>
       <c r="C124" s="4">
-        <v>11374</v>
+        <v>11376</v>
       </c>
       <c r="D124" s="4">
-        <v>20843</v>
+        <v>21496</v>
       </c>
       <c r="E124" s="4">
-        <v>170748</v>
+        <v>171608</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>11546</v>
+        <v>11554</v>
       </c>
       <c r="C125" s="4">
         <v>441</v>
       </c>
       <c r="D125" s="4">
-        <v>2805</v>
+        <v>2836</v>
       </c>
       <c r="E125" s="4">
-        <v>14792</v>
+        <v>14831</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>41187</v>
+        <v>41244</v>
       </c>
       <c r="C126" s="4">
-        <v>6714</v>
+        <v>6725</v>
       </c>
       <c r="D126" s="4">
-        <v>9795</v>
+        <v>9948</v>
       </c>
       <c r="E126" s="4">
-        <v>57696</v>
+        <v>57917</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>98835</v>
+        <v>99235</v>
       </c>
       <c r="C127" s="4">
-        <v>6058</v>
+        <v>6060</v>
       </c>
       <c r="D127" s="4">
-        <v>10210</v>
+        <v>10345</v>
       </c>
       <c r="E127" s="4">
-        <v>115103</v>
+        <v>115640</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>5296</v>
+        <v>5300</v>
       </c>
       <c r="C128" s="4">
         <v>186</v>
       </c>
       <c r="D128" s="4">
-        <v>2085</v>
+        <v>2110</v>
       </c>
       <c r="E128" s="4">
-        <v>7567</v>
+        <v>7596</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>11676</v>
+        <v>11687</v>
       </c>
       <c r="C129" s="4">
         <v>359</v>
       </c>
       <c r="D129" s="4">
-        <v>3122</v>
+        <v>3210</v>
       </c>
       <c r="E129" s="4">
-        <v>15157</v>
+        <v>15256</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>85703</v>
+        <v>86049</v>
       </c>
       <c r="C130" s="4">
-        <v>4665</v>
+        <v>4674</v>
       </c>
       <c r="D130" s="4">
-        <v>10431</v>
+        <v>10659</v>
       </c>
       <c r="E130" s="4">
-        <v>100799</v>
+        <v>101382</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>18707</v>
+        <v>18779</v>
       </c>
       <c r="C131" s="4">
         <v>1132</v>
       </c>
       <c r="D131" s="4">
-        <v>5109</v>
+        <v>5176</v>
       </c>
       <c r="E131" s="4">
-        <v>24948</v>
+        <v>25087</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E133" s="4">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>26562</v>
+        <v>26793</v>
       </c>
       <c r="C134" s="4">
         <v>545</v>
       </c>
       <c r="D134" s="4">
-        <v>15128</v>
+        <v>15346</v>
       </c>
       <c r="E134" s="4">
-        <v>42235</v>
+        <v>42684</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="C135" s="4">
         <v>36</v>
       </c>
       <c r="D135" s="4">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E135" s="4">
-        <v>1770</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="C137" s="4">
         <v>39</v>
       </c>
       <c r="D137" s="4">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E137" s="4">
-        <v>1944</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>22939</v>
+        <v>22952</v>
       </c>
       <c r="C138" s="4">
-        <v>3724</v>
+        <v>3732</v>
       </c>
       <c r="D138" s="4">
-        <v>4264</v>
+        <v>4315</v>
       </c>
       <c r="E138" s="4">
-        <v>30927</v>
+        <v>30999</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>34</v>
       </c>
       <c r="D139" s="4">
-        <v>1732</v>
+        <v>1793</v>
       </c>
       <c r="E139" s="4">
-        <v>2391</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>6269</v>
+        <v>6278</v>
       </c>
       <c r="C140" s="4">
         <v>268</v>
       </c>
       <c r="D140" s="4">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="E140" s="4">
-        <v>6719</v>
+        <v>6736</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>18629</v>
+        <v>18695</v>
       </c>
       <c r="C141" s="4">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D141" s="4">
-        <v>2095</v>
+        <v>2147</v>
       </c>
       <c r="E141" s="4">
-        <v>22720</v>
+        <v>22839</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,7 +3451,7 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>4997</v>
+        <v>5000</v>
       </c>
       <c r="C142" s="4">
         <v>81</v>
@@ -3460,7 +3460,7 @@
         <v>3330</v>
       </c>
       <c r="E142" s="4">
-        <v>8408</v>
+        <v>8411</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>13739</v>
+        <v>13784</v>
       </c>
       <c r="C143" s="4">
         <v>586</v>
       </c>
       <c r="D143" s="4">
-        <v>2323</v>
+        <v>2357</v>
       </c>
       <c r="E143" s="4">
-        <v>16648</v>
+        <v>16727</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9976</v>
+        <v>9999</v>
       </c>
       <c r="C144" s="4">
         <v>370</v>
       </c>
       <c r="D144" s="4">
-        <v>1952</v>
+        <v>1968</v>
       </c>
       <c r="E144" s="4">
-        <v>12298</v>
+        <v>12337</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6833</v>
+        <v>6849</v>
       </c>
       <c r="C145" s="4">
         <v>198</v>
       </c>
       <c r="D145" s="4">
-        <v>1925</v>
+        <v>1960</v>
       </c>
       <c r="E145" s="4">
-        <v>8956</v>
+        <v>9007</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>8061</v>
+        <v>8076</v>
       </c>
       <c r="C146" s="4">
         <v>449</v>
       </c>
       <c r="D146" s="4">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="E146" s="4">
-        <v>9602</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>42859</v>
+        <v>43063</v>
       </c>
       <c r="C147" s="4">
         <v>2737</v>
       </c>
       <c r="D147" s="4">
-        <v>3661</v>
+        <v>3718</v>
       </c>
       <c r="E147" s="4">
-        <v>49257</v>
+        <v>49518</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>25684</v>
+        <v>25865</v>
       </c>
       <c r="C148" s="4">
         <v>550</v>
       </c>
       <c r="D148" s="4">
-        <v>3118</v>
+        <v>3263</v>
       </c>
       <c r="E148" s="4">
-        <v>29352</v>
+        <v>29678</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C149" s="4">
         <v>149</v>
       </c>
       <c r="D149" s="4">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E149" s="4">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>4257</v>
+        <v>4265</v>
       </c>
       <c r="C150" s="4">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D150" s="4">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="E150" s="4">
-        <v>5553</v>
+        <v>5575</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>8438</v>
+        <v>8452</v>
       </c>
       <c r="C151" s="4">
         <v>297</v>
       </c>
       <c r="D151" s="4">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="E151" s="4">
-        <v>9392</v>
+        <v>9413</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>172299</v>
+        <v>172475</v>
       </c>
       <c r="C153" s="4">
-        <v>6136</v>
+        <v>6141</v>
       </c>
       <c r="D153" s="4">
-        <v>74205</v>
+        <v>74268</v>
       </c>
       <c r="E153" s="4">
-        <v>252640</v>
+        <v>252884</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="C154" s="4">
         <v>82</v>
       </c>
       <c r="D154" s="4">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="E154" s="4">
-        <v>4020</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10590</v>
+        <v>10600</v>
       </c>
       <c r="C155" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D155" s="4">
-        <v>1199</v>
+        <v>1263</v>
       </c>
       <c r="E155" s="4">
-        <v>11929</v>
+        <v>12004</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1964</v>
+        <v>1970</v>
       </c>
       <c r="C156" s="4">
         <v>664</v>
       </c>
       <c r="D156" s="4">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E156" s="4">
-        <v>3595</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3712,10 +3712,10 @@
         <v>117</v>
       </c>
       <c r="D157" s="4">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E157" s="4">
-        <v>1604</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,7 +3723,7 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C158" s="4">
         <v>51</v>
@@ -3732,7 +3732,7 @@
         <v>194</v>
       </c>
       <c r="E158" s="4">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>25527</v>
+        <v>25652</v>
       </c>
       <c r="C159" s="4">
         <v>603</v>
       </c>
       <c r="D159" s="4">
-        <v>1522</v>
+        <v>1531</v>
       </c>
       <c r="E159" s="4">
-        <v>27652</v>
+        <v>27786</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>48940</v>
+        <v>49034</v>
       </c>
       <c r="C160" s="4">
         <v>282</v>
       </c>
       <c r="D160" s="4">
-        <v>3509</v>
+        <v>3516</v>
       </c>
       <c r="E160" s="4">
-        <v>52731</v>
+        <v>52832</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3780,10 +3780,10 @@
         <v>37</v>
       </c>
       <c r="D161" s="4">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E161" s="4">
-        <v>3008</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>197017</v>
+        <v>197591</v>
       </c>
       <c r="C162" s="4">
-        <v>9226</v>
+        <v>9227</v>
       </c>
       <c r="D162" s="4">
-        <v>37491</v>
+        <v>38140</v>
       </c>
       <c r="E162" s="4">
-        <v>243734</v>
+        <v>244958</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,7 +3808,7 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C163" s="4">
         <v>34</v>
@@ -3817,7 +3817,7 @@
         <v>41</v>
       </c>
       <c r="E163" s="4">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>22927</v>
+        <v>22998</v>
       </c>
       <c r="C164" s="4">
         <v>942</v>
       </c>
       <c r="D164" s="4">
-        <v>3090</v>
+        <v>3154</v>
       </c>
       <c r="E164" s="4">
-        <v>26959</v>
+        <v>27094</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,7 +3842,7 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C165" s="4">
         <v>20</v>
@@ -3851,7 +3851,7 @@
         <v>208</v>
       </c>
       <c r="E165" s="4">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>38722</v>
+        <v>38773</v>
       </c>
       <c r="C166" s="4">
-        <v>4991</v>
+        <v>5001</v>
       </c>
       <c r="D166" s="4">
-        <v>27990</v>
+        <v>28629</v>
       </c>
       <c r="E166" s="4">
-        <v>71703</v>
+        <v>72403</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>13609</v>
+        <v>13699</v>
       </c>
       <c r="C167" s="4">
         <v>796</v>
       </c>
       <c r="D167" s="4">
-        <v>4124</v>
+        <v>4246</v>
       </c>
       <c r="E167" s="4">
-        <v>18529</v>
+        <v>18741</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3752</v>
+        <v>3763</v>
       </c>
       <c r="C168" s="4">
         <v>82</v>
       </c>
       <c r="D168" s="4">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="E168" s="4">
-        <v>4681</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3916,10 +3916,10 @@
         <v>47</v>
       </c>
       <c r="D169" s="4">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="E169" s="4">
-        <v>6091</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8983</v>
+        <v>8998</v>
       </c>
       <c r="C170" s="4">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D170" s="4">
-        <v>2011</v>
+        <v>2028</v>
       </c>
       <c r="E170" s="4">
-        <v>11729</v>
+        <v>11762</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>290711</v>
+        <v>291878</v>
       </c>
       <c r="C171" s="4">
-        <v>14594</v>
+        <v>14639</v>
       </c>
       <c r="D171" s="4">
-        <v>24110</v>
+        <v>24730</v>
       </c>
       <c r="E171" s="4">
-        <v>329415</v>
+        <v>331247</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6792</v>
+        <v>6794</v>
       </c>
       <c r="C172" s="4">
         <v>663</v>
       </c>
       <c r="D172" s="4">
-        <v>1349</v>
+        <v>1366</v>
       </c>
       <c r="E172" s="4">
-        <v>8804</v>
+        <v>8823</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4755</v>
+        <v>4757</v>
       </c>
       <c r="C173" s="4">
         <v>620</v>
       </c>
       <c r="D173" s="4">
-        <v>2689</v>
+        <v>2751</v>
       </c>
       <c r="E173" s="4">
-        <v>8064</v>
+        <v>8128</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>34638</v>
+        <v>34679</v>
       </c>
       <c r="C175" s="4">
         <v>1025</v>
       </c>
       <c r="D175" s="4">
-        <v>3529</v>
+        <v>3591</v>
       </c>
       <c r="E175" s="4">
-        <v>39192</v>
+        <v>39295</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>22315</v>
+        <v>22358</v>
       </c>
       <c r="C176" s="4">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="D176" s="4">
-        <v>6214</v>
+        <v>6253</v>
       </c>
       <c r="E176" s="4">
-        <v>29976</v>
+        <v>30060</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2868</v>
+        <v>2873</v>
       </c>
       <c r="C177" s="4">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D177" s="4">
-        <v>1317</v>
+        <v>1336</v>
       </c>
       <c r="E177" s="4">
-        <v>4918</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>6326</v>
+        <v>6328</v>
       </c>
       <c r="C178" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D178" s="4">
-        <v>2315</v>
+        <v>2321</v>
       </c>
       <c r="E178" s="4">
-        <v>8768</v>
+        <v>8778</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>184211</v>
+        <v>184697</v>
       </c>
       <c r="C179" s="4">
-        <v>35916</v>
+        <v>35968</v>
       </c>
       <c r="D179" s="4">
-        <v>30066</v>
+        <v>30387</v>
       </c>
       <c r="E179" s="4">
-        <v>250193</v>
+        <v>251052</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C180" s="4">
         <v>176</v>
       </c>
       <c r="D180" s="4">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E180" s="4">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4120,10 +4120,10 @@
         <v>210</v>
       </c>
       <c r="D181" s="4">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E181" s="4">
-        <v>1012</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>22821</v>
+        <v>22863</v>
       </c>
       <c r="C182" s="4">
-        <v>4952</v>
+        <v>4953</v>
       </c>
       <c r="D182" s="4">
-        <v>6322</v>
+        <v>6599</v>
       </c>
       <c r="E182" s="4">
-        <v>34095</v>
+        <v>34415</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>11417</v>
+        <v>11491</v>
       </c>
       <c r="C183" s="4">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D183" s="4">
-        <v>3269</v>
+        <v>3290</v>
       </c>
       <c r="E183" s="4">
-        <v>15549</v>
+        <v>15645</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>7590</v>
+        <v>7625</v>
       </c>
       <c r="C184" s="4">
         <v>910</v>
       </c>
       <c r="D184" s="4">
-        <v>1770</v>
+        <v>1779</v>
       </c>
       <c r="E184" s="4">
-        <v>10270</v>
+        <v>10314</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>56095</v>
+        <v>56522</v>
       </c>
       <c r="C185" s="4">
-        <v>5501</v>
+        <v>5506</v>
       </c>
       <c r="D185" s="4">
-        <v>12140</v>
+        <v>12338</v>
       </c>
       <c r="E185" s="4">
-        <v>73736</v>
+        <v>74366</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4205,10 +4205,10 @@
         <v>208</v>
       </c>
       <c r="D186" s="4">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="E186" s="4">
-        <v>2748</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8494</v>
+        <v>8510</v>
       </c>
       <c r="C187" s="4">
         <v>82</v>
       </c>
       <c r="D187" s="4">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="E187" s="4">
-        <v>9229</v>
+        <v>9253</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>26357</v>
+        <v>26406</v>
       </c>
       <c r="C188" s="4">
         <v>1053</v>
       </c>
       <c r="D188" s="4">
-        <v>3504</v>
+        <v>3540</v>
       </c>
       <c r="E188" s="4">
-        <v>30914</v>
+        <v>30999</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>62730</v>
+        <v>62810</v>
       </c>
       <c r="C189" s="4">
         <v>5958</v>
       </c>
       <c r="D189" s="4">
-        <v>7669</v>
+        <v>7893</v>
       </c>
       <c r="E189" s="4">
-        <v>76357</v>
+        <v>76661</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6860</v>
+        <v>6869</v>
       </c>
       <c r="C190" s="4">
         <v>35</v>
       </c>
       <c r="D190" s="4">
-        <v>826</v>
+        <v>859</v>
       </c>
       <c r="E190" s="4">
-        <v>7721</v>
+        <v>7763</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2357</v>
+        <v>2365</v>
       </c>
       <c r="C191" s="4">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D191" s="4">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="E191" s="4">
-        <v>3167</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>39835</v>
+        <v>39942</v>
       </c>
       <c r="C192" s="4">
-        <v>12066</v>
+        <v>12071</v>
       </c>
       <c r="D192" s="4">
-        <v>7454</v>
+        <v>7668</v>
       </c>
       <c r="E192" s="4">
-        <v>59355</v>
+        <v>59681</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C193" s="4">
         <v>27</v>
       </c>
       <c r="D193" s="4">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E193" s="4">
-        <v>1181</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="C194" s="4">
         <v>61</v>
       </c>
       <c r="D194" s="4">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="E194" s="4">
-        <v>2100</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>5004</v>
+        <v>5012</v>
       </c>
       <c r="C195" s="4">
         <v>459</v>
       </c>
       <c r="D195" s="4">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E195" s="4">
-        <v>6400</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4674</v>
+        <v>4724</v>
       </c>
       <c r="C196" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D196" s="4">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="E196" s="4">
-        <v>5205</v>
+        <v>5301</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3472</v>
+        <v>3485</v>
       </c>
       <c r="C197" s="4">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D197" s="4">
-        <v>1742</v>
+        <v>1781</v>
       </c>
       <c r="E197" s="4">
-        <v>5546</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,7 +4403,7 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C198" s="4">
         <v>56</v>
@@ -4412,7 +4412,7 @@
         <v>29</v>
       </c>
       <c r="E198" s="4">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9837</v>
+        <v>9882</v>
       </c>
       <c r="C199" s="4">
         <v>250</v>
       </c>
       <c r="D199" s="4">
-        <v>4370</v>
+        <v>4437</v>
       </c>
       <c r="E199" s="4">
-        <v>14457</v>
+        <v>14569</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>61119</v>
+        <v>61240</v>
       </c>
       <c r="C200" s="4">
-        <v>4690</v>
+        <v>4696</v>
       </c>
       <c r="D200" s="4">
-        <v>3614</v>
+        <v>3677</v>
       </c>
       <c r="E200" s="4">
-        <v>69423</v>
+        <v>69613</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5192</v>
+        <v>5201</v>
       </c>
       <c r="C201" s="4">
         <v>135</v>
       </c>
       <c r="D201" s="4">
-        <v>2054</v>
+        <v>2095</v>
       </c>
       <c r="E201" s="4">
-        <v>7381</v>
+        <v>7431</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>15821</v>
+        <v>15840</v>
       </c>
       <c r="C202" s="4">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="D202" s="4">
-        <v>1545</v>
+        <v>1600</v>
       </c>
       <c r="E202" s="4">
-        <v>19150</v>
+        <v>19225</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4869</v>
+        <v>4876</v>
       </c>
       <c r="C203" s="4">
         <v>357</v>
       </c>
       <c r="D203" s="4">
-        <v>1351</v>
+        <v>1414</v>
       </c>
       <c r="E203" s="4">
-        <v>6577</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="C204" s="4">
         <v>59</v>
       </c>
       <c r="D204" s="4">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="E204" s="4">
-        <v>6040</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>13042</v>
+        <v>13121</v>
       </c>
       <c r="C205" s="4">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D205" s="4">
-        <v>1740</v>
+        <v>1774</v>
       </c>
       <c r="E205" s="4">
-        <v>16114</v>
+        <v>16228</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>24646</v>
+        <v>24752</v>
       </c>
       <c r="C206" s="4">
-        <v>6563</v>
+        <v>6574</v>
       </c>
       <c r="D206" s="4">
-        <v>10393</v>
+        <v>10558</v>
       </c>
       <c r="E206" s="4">
-        <v>41602</v>
+        <v>41884</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="C207" s="4">
         <v>74</v>
       </c>
       <c r="D207" s="4">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="E207" s="4">
-        <v>3963</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>15445</v>
+        <v>15447</v>
       </c>
       <c r="C209" s="4">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D209" s="4">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E209" s="4">
-        <v>16084</v>
+        <v>16094</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C210" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D210" s="4">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E210" s="4">
-        <v>1057</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>10184</v>
+        <v>10188</v>
       </c>
       <c r="C211" s="4">
         <v>372</v>
       </c>
       <c r="D211" s="4">
-        <v>2208</v>
+        <v>2218</v>
       </c>
       <c r="E211" s="4">
-        <v>12764</v>
+        <v>12778</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4647,10 +4647,10 @@
         <v>94</v>
       </c>
       <c r="D212" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E212" s="4">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>154031</v>
+        <v>154232</v>
       </c>
       <c r="C213" s="4">
-        <v>8672</v>
+        <v>8673</v>
       </c>
       <c r="D213" s="4">
-        <v>14443</v>
+        <v>14526</v>
       </c>
       <c r="E213" s="4">
-        <v>177146</v>
+        <v>177431</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3635</v>
+        <v>3642</v>
       </c>
       <c r="C214" s="4">
         <v>354</v>
       </c>
       <c r="D214" s="4">
-        <v>3508</v>
+        <v>3526</v>
       </c>
       <c r="E214" s="4">
-        <v>7497</v>
+        <v>7522</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>41550</v>
+        <v>41575</v>
       </c>
       <c r="C215" s="4">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D215" s="4">
-        <v>4394</v>
+        <v>4643</v>
       </c>
       <c r="E215" s="4">
-        <v>46437</v>
+        <v>46713</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>2309</v>
+        <v>2315</v>
       </c>
       <c r="C216" s="4">
         <v>129</v>
       </c>
       <c r="D216" s="4">
-        <v>1284</v>
+        <v>1294</v>
       </c>
       <c r="E216" s="4">
-        <v>3722</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C218" s="4">
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="E218" s="4">
-        <v>440</v>
+        <v>447</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="C219" s="4">
         <v>25</v>
       </c>
       <c r="D219" s="4">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="E219" s="4">
-        <v>1744</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="C220" s="4">
         <v>252</v>
       </c>
       <c r="D220" s="4">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="E220" s="4">
-        <v>4061</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1324584</v>
+        <v>1331591</v>
       </c>
       <c r="C221" s="4">
-        <v>83155</v>
+        <v>83250</v>
       </c>
       <c r="D221" s="4">
-        <v>118171</v>
+        <v>119851</v>
       </c>
       <c r="E221" s="4">
-        <v>1525910</v>
+        <v>1534692</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>75319</v>
+        <v>75390</v>
       </c>
       <c r="C222" s="4">
-        <v>2986</v>
+        <v>2993</v>
       </c>
       <c r="D222" s="4">
-        <v>29561</v>
+        <v>29874</v>
       </c>
       <c r="E222" s="4">
-        <v>107866</v>
+        <v>108257</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
       </c>
       <c r="D223" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E223" s="4">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C225" s="4">
         <v>24</v>
       </c>
       <c r="D225" s="4">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E225" s="4">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>19623</v>
+        <v>19638</v>
       </c>
       <c r="C226" s="4">
         <v>1009</v>
       </c>
       <c r="D226" s="4">
-        <v>2698</v>
+        <v>2704</v>
       </c>
       <c r="E226" s="4">
-        <v>23330</v>
+        <v>23351</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>66197</v>
+        <v>66410</v>
       </c>
       <c r="C227" s="4">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D227" s="4">
-        <v>32459</v>
+        <v>32482</v>
       </c>
       <c r="E227" s="4">
-        <v>100067</v>
+        <v>100306</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>799021</v>
+        <v>803432</v>
       </c>
       <c r="C228" s="4">
-        <v>37142</v>
+        <v>37146</v>
       </c>
       <c r="D228" s="4">
-        <v>84820</v>
+        <v>86984</v>
       </c>
       <c r="E228" s="4">
-        <v>920983</v>
+        <v>927562</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>8872</v>
+        <v>8886</v>
       </c>
       <c r="C229" s="4">
         <v>202</v>
       </c>
       <c r="D229" s="4">
-        <v>1930</v>
+        <v>1955</v>
       </c>
       <c r="E229" s="4">
-        <v>11004</v>
+        <v>11043</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7535</v>
+        <v>7545</v>
       </c>
       <c r="C230" s="4">
         <v>830</v>
       </c>
       <c r="D230" s="4">
-        <v>3424</v>
+        <v>3453</v>
       </c>
       <c r="E230" s="4">
-        <v>11789</v>
+        <v>11828</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>9010</v>
+        <v>9024</v>
       </c>
       <c r="C231" s="4">
         <v>1769</v>
       </c>
       <c r="D231" s="4">
-        <v>2664</v>
+        <v>2686</v>
       </c>
       <c r="E231" s="4">
-        <v>13443</v>
+        <v>13479</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C232" s="4">
         <v>65</v>
       </c>
       <c r="D232" s="4">
-        <v>1299</v>
+        <v>1315</v>
       </c>
       <c r="E232" s="4">
-        <v>2104</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>20920</v>
+        <v>20937</v>
       </c>
       <c r="C233" s="4">
         <v>328</v>
       </c>
       <c r="D233" s="4">
-        <v>813</v>
+        <v>839</v>
       </c>
       <c r="E233" s="4">
-        <v>22061</v>
+        <v>22104</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>37192</v>
+        <v>37248</v>
       </c>
       <c r="C234" s="4">
         <v>1064</v>
       </c>
       <c r="D234" s="4">
-        <v>5284</v>
+        <v>5490</v>
       </c>
       <c r="E234" s="4">
-        <v>43540</v>
+        <v>43802</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>15559</v>
+        <v>15615</v>
       </c>
       <c r="C235" s="4">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="D235" s="4">
-        <v>4287</v>
+        <v>4493</v>
       </c>
       <c r="E235" s="4">
-        <v>21491</v>
+        <v>21755</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>33312</v>
+        <v>33416</v>
       </c>
       <c r="C236" s="4">
-        <v>1339</v>
+        <v>1350</v>
       </c>
       <c r="D236" s="4">
-        <v>9956</v>
+        <v>10101</v>
       </c>
       <c r="E236" s="4">
-        <v>44607</v>
+        <v>44867</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>82353</v>
+        <v>82517</v>
       </c>
       <c r="C237" s="4">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="D237" s="4">
-        <v>5206</v>
+        <v>5409</v>
       </c>
       <c r="E237" s="4">
-        <v>88617</v>
+        <v>88989</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>25747</v>
+        <v>25805</v>
       </c>
       <c r="C238" s="4">
         <v>681</v>
       </c>
       <c r="D238" s="4">
-        <v>1423</v>
+        <v>1458</v>
       </c>
       <c r="E238" s="4">
-        <v>27851</v>
+        <v>27944</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4015</v>
+        <v>4024</v>
       </c>
       <c r="C239" s="4">
         <v>110</v>
       </c>
       <c r="D239" s="4">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E239" s="4">
-        <v>4386</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>31024</v>
+        <v>31045</v>
       </c>
       <c r="C240" s="4">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D240" s="4">
-        <v>3168</v>
+        <v>3190</v>
       </c>
       <c r="E240" s="4">
-        <v>34687</v>
+        <v>34732</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>302663</v>
+        <v>303028</v>
       </c>
       <c r="C241" s="4">
-        <v>4116</v>
+        <v>4117</v>
       </c>
       <c r="D241" s="4">
-        <v>31330</v>
+        <v>31782</v>
       </c>
       <c r="E241" s="4">
-        <v>338109</v>
+        <v>338927</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>26418</v>
+        <v>26661</v>
       </c>
       <c r="C242" s="4">
         <v>710</v>
       </c>
       <c r="D242" s="4">
-        <v>1691</v>
+        <v>1705</v>
       </c>
       <c r="E242" s="4">
-        <v>28819</v>
+        <v>29076</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5174,10 +5174,10 @@
         <v>274</v>
       </c>
       <c r="D243" s="4">
-        <v>1636</v>
+        <v>1642</v>
       </c>
       <c r="E243" s="4">
-        <v>3388</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>94018</v>
+        <v>94088</v>
       </c>
       <c r="C244" s="4">
-        <v>4858</v>
+        <v>4859</v>
       </c>
       <c r="D244" s="4">
-        <v>14983</v>
+        <v>15375</v>
       </c>
       <c r="E244" s="4">
-        <v>113859</v>
+        <v>114322</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>10074</v>
+        <v>10082</v>
       </c>
       <c r="C245" s="4">
         <v>462</v>
       </c>
       <c r="D245" s="4">
-        <v>3137</v>
+        <v>3140</v>
       </c>
       <c r="E245" s="4">
-        <v>13673</v>
+        <v>13684</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>18830</v>
+        <v>18884</v>
       </c>
       <c r="C246" s="4">
         <v>156</v>
       </c>
       <c r="D246" s="4">
-        <v>859</v>
+        <v>886</v>
       </c>
       <c r="E246" s="4">
-        <v>19845</v>
+        <v>19926</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>340711</v>
+        <v>341984</v>
       </c>
       <c r="C247" s="4">
-        <v>13173</v>
+        <v>13176</v>
       </c>
       <c r="D247" s="4">
-        <v>35122</v>
+        <v>35967</v>
       </c>
       <c r="E247" s="4">
-        <v>389006</v>
+        <v>391127</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>25705</v>
+        <v>25756</v>
       </c>
       <c r="C248" s="4">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D248" s="4">
-        <v>4967</v>
+        <v>5025</v>
       </c>
       <c r="E248" s="4">
-        <v>31507</v>
+        <v>31618</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C249" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D249" s="4">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E249" s="4">
-        <v>1080</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>37999</v>
+        <v>38092</v>
       </c>
       <c r="C250" s="4">
-        <v>2901</v>
+        <v>2905</v>
       </c>
       <c r="D250" s="4">
-        <v>4004</v>
+        <v>4045</v>
       </c>
       <c r="E250" s="4">
-        <v>44904</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>14116</v>
+        <v>14136</v>
       </c>
       <c r="C251" s="4">
         <v>1700</v>
       </c>
       <c r="D251" s="4">
-        <v>2580</v>
+        <v>2639</v>
       </c>
       <c r="E251" s="4">
-        <v>18396</v>
+        <v>18475</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C252" s="4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D252" s="4">
         <v>357</v>
       </c>
       <c r="E252" s="4">
-        <v>2507</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5930</v>
+        <v>5967</v>
       </c>
       <c r="C253" s="4">
         <v>494</v>
       </c>
       <c r="D253" s="4">
-        <v>1240</v>
+        <v>1245</v>
       </c>
       <c r="E253" s="4">
-        <v>7664</v>
+        <v>7706</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>14392</v>
+        <v>14403</v>
       </c>
       <c r="C254" s="4">
         <v>113</v>
       </c>
       <c r="D254" s="4">
-        <v>2869</v>
+        <v>2881</v>
       </c>
       <c r="E254" s="4">
-        <v>17374</v>
+        <v>17397</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>8230</v>
+        <v>8238</v>
       </c>
       <c r="C255" s="4">
         <v>210</v>
       </c>
       <c r="D255" s="4">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E255" s="4">
-        <v>8764</v>
+        <v>8776</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>127286</v>
+        <v>127358</v>
       </c>
       <c r="C256" s="4">
-        <v>5525</v>
+        <v>5653</v>
       </c>
       <c r="D256" s="4">
-        <v>2938</v>
+        <v>3020</v>
       </c>
       <c r="E256" s="4">
-        <v>135749</v>
+        <v>136031</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>18220770</v>
+        <v>18301672</v>
       </c>
       <c r="C257" s="4">
-        <v>969047</v>
+        <v>970422</v>
       </c>
       <c r="D257" s="4">
-        <v>1993396</v>
+        <v>2030649</v>
       </c>
       <c r="E257" s="4">
-        <v>21183213</v>
+        <v>21302743</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
